--- a/uploads/commandetestxlsx.xlsx
+++ b/uploads/commandetestxlsx.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\theory\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8FC453-82B1-4C8F-B4EC-C0B26C816AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F6A668-E091-493D-99C2-4BCCC3907F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2043250B-A445-4BC1-98C5-CC05229A84D7}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{2043250B-A445-4BC1-98C5-CC05229A84D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>BonCommande</t>
   </si>
@@ -153,12 +150,18 @@
   </si>
   <si>
     <t>15AWCC/03845</t>
+  </si>
+  <si>
+    <t>Remplacement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,9 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,22 +217,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Worksheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,22 +516,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1EDF82-0DB1-4C08-BF89-F2B53658C6EE}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="6" width="11.5546875" customWidth="1"/>
-    <col min="10" max="12" width="11.5546875" customWidth="1"/>
-    <col min="16" max="17" width="11.5546875" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="2" max="8" width="11.5546875" customWidth="1"/>
+    <col min="12" max="14" width="11.5546875" customWidth="1"/>
+    <col min="18" max="19" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,55 +539,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -606,49 +601,55 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="J2" s="2">
         <v>25290000</v>
       </c>
-      <c r="I2">
+      <c r="K2" s="2">
         <v>1264500</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>281</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>90000</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -656,55 +657,62 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="2">
         <v>1380000</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="2">
         <v>80040</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>5.8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>115</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>12000</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>6</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>